--- a/output_data/users_data.xlsx
+++ b/output_data/users_data.xlsx
@@ -473,12 +473,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>418</t>
+          <t>923</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2024-08-26T09:18:47.735Z</t>
+          <t>2024-08-26T10:59:10.304Z</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -498,12 +498,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>427</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2024-08-26T09:18:48.082Z</t>
+          <t>2024-08-26T10:59:10.660Z</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -523,12 +523,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>452</t>
+          <t>148</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2024-08-26T09:18:48.436Z</t>
+          <t>2024-08-26T10:59:11.028Z</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -548,12 +548,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>488</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2024-08-26T09:18:48.789Z</t>
+          <t>2024-08-26T10:59:11.393Z</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -573,12 +573,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>907</t>
+          <t>608</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2024-08-26T09:18:49.147Z</t>
+          <t>2024-08-26T10:59:11.740Z</t>
         </is>
       </c>
       <c r="E6" t="n">
